--- a/RD files/公共参数.xlsx
+++ b/RD files/公共参数.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\working\CTP期货交易系统（看穿式）mongodb\RD files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="515">
   <si>
     <t>数据库名称</t>
   </si>
@@ -1409,13 +1414,193 @@
   <si>
     <t>全球</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>313周</t>
+  </si>
+  <si>
+    <t>314周</t>
+  </si>
+  <si>
+    <t>315周</t>
+  </si>
+  <si>
+    <t>316周</t>
+  </si>
+  <si>
+    <t>317周</t>
+  </si>
+  <si>
+    <t>318周</t>
+  </si>
+  <si>
+    <t>319周</t>
+  </si>
+  <si>
+    <t>320周</t>
+  </si>
+  <si>
+    <t>321周</t>
+  </si>
+  <si>
+    <t>322周</t>
+  </si>
+  <si>
+    <t>323周</t>
+  </si>
+  <si>
+    <t>324周</t>
+  </si>
+  <si>
+    <t>325周</t>
+  </si>
+  <si>
+    <t>326周</t>
+  </si>
+  <si>
+    <t>327周</t>
+  </si>
+  <si>
+    <t>328周</t>
+  </si>
+  <si>
+    <t>329周</t>
+  </si>
+  <si>
+    <t>330周</t>
+  </si>
+  <si>
+    <t>331周</t>
+  </si>
+  <si>
+    <t>332周</t>
+  </si>
+  <si>
+    <t>333周</t>
+  </si>
+  <si>
+    <t>334周</t>
+  </si>
+  <si>
+    <t>335周</t>
+  </si>
+  <si>
+    <t>336周</t>
+  </si>
+  <si>
+    <t>337周</t>
+  </si>
+  <si>
+    <t>338周</t>
+  </si>
+  <si>
+    <t>339周</t>
+  </si>
+  <si>
+    <t>340周</t>
+  </si>
+  <si>
+    <t>341周</t>
+  </si>
+  <si>
+    <t>342周</t>
+  </si>
+  <si>
+    <t>343周</t>
+  </si>
+  <si>
+    <t>344周</t>
+  </si>
+  <si>
+    <t>345周</t>
+  </si>
+  <si>
+    <t>346周</t>
+  </si>
+  <si>
+    <t>347周</t>
+  </si>
+  <si>
+    <t>348周</t>
+  </si>
+  <si>
+    <t>349周</t>
+  </si>
+  <si>
+    <t>350周</t>
+  </si>
+  <si>
+    <t>351周</t>
+  </si>
+  <si>
+    <t>352周</t>
+  </si>
+  <si>
+    <t>353周</t>
+  </si>
+  <si>
+    <t>354周</t>
+  </si>
+  <si>
+    <t>355周</t>
+  </si>
+  <si>
+    <t>356周</t>
+  </si>
+  <si>
+    <t>357周</t>
+  </si>
+  <si>
+    <t>358周</t>
+  </si>
+  <si>
+    <t>359周</t>
+  </si>
+  <si>
+    <t>360周</t>
+  </si>
+  <si>
+    <t>361周</t>
+  </si>
+  <si>
+    <t>362周</t>
+  </si>
+  <si>
+    <t>363周</t>
+  </si>
+  <si>
+    <t>364周</t>
+  </si>
+  <si>
+    <t>365周</t>
+  </si>
+  <si>
+    <t>366周</t>
+  </si>
+  <si>
+    <t>367周</t>
+  </si>
+  <si>
+    <t>368周</t>
+  </si>
+  <si>
+    <t>369周</t>
+  </si>
+  <si>
+    <t>370周</t>
+  </si>
+  <si>
+    <t>371周</t>
+  </si>
+  <si>
+    <t>372周</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,7 +1747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,9 +1779,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,6 +1814,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1803,19 +1990,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1837,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1848,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1859,7 +2046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1870,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1881,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1892,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1903,7 +2090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1914,7 +2101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1925,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1936,7 +2123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1947,7 +2134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1958,7 +2145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1969,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1980,7 +2167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1991,7 +2178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2002,7 +2189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2013,7 +2200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2024,7 +2211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2035,7 +2222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2053,20 +2240,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305:C373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2077,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42008</v>
       </c>
@@ -2088,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42015</v>
       </c>
@@ -2099,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42022</v>
       </c>
@@ -2110,7 +2297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42029</v>
       </c>
@@ -2121,7 +2308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42036</v>
       </c>
@@ -2132,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>42043</v>
       </c>
@@ -2143,7 +2330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>42050</v>
       </c>
@@ -2154,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>42057</v>
       </c>
@@ -2165,7 +2352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>42064</v>
       </c>
@@ -2176,7 +2363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>42071</v>
       </c>
@@ -2187,7 +2374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>42078</v>
       </c>
@@ -2198,7 +2385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>42085</v>
       </c>
@@ -2209,7 +2396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>42092</v>
       </c>
@@ -2220,7 +2407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>42099</v>
       </c>
@@ -2231,7 +2418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>42106</v>
       </c>
@@ -2242,7 +2429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>42113</v>
       </c>
@@ -2253,7 +2440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>42120</v>
       </c>
@@ -2264,7 +2451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>42127</v>
       </c>
@@ -2275,7 +2462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>42134</v>
       </c>
@@ -2286,7 +2473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>42141</v>
       </c>
@@ -2297,7 +2484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>42148</v>
       </c>
@@ -2308,7 +2495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>42155</v>
       </c>
@@ -2319,7 +2506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>42162</v>
       </c>
@@ -2330,7 +2517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>42169</v>
       </c>
@@ -2341,7 +2528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>42176</v>
       </c>
@@ -2352,7 +2539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>42183</v>
       </c>
@@ -2363,7 +2550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>42190</v>
       </c>
@@ -2374,7 +2561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>42197</v>
       </c>
@@ -2385,7 +2572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>42204</v>
       </c>
@@ -2396,7 +2583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>42211</v>
       </c>
@@ -2407,7 +2594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>42218</v>
       </c>
@@ -2418,7 +2605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>42225</v>
       </c>
@@ -2429,7 +2616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>42232</v>
       </c>
@@ -2440,7 +2627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>42239</v>
       </c>
@@ -2451,7 +2638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>42246</v>
       </c>
@@ -2462,7 +2649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>42253</v>
       </c>
@@ -2473,7 +2660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>42260</v>
       </c>
@@ -2484,7 +2671,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>42267</v>
       </c>
@@ -2495,7 +2682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>42274</v>
       </c>
@@ -2506,7 +2693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>42281</v>
       </c>
@@ -2517,7 +2704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>42288</v>
       </c>
@@ -2528,7 +2715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42295</v>
       </c>
@@ -2539,7 +2726,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42302</v>
       </c>
@@ -2550,7 +2737,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>42309</v>
       </c>
@@ -2561,7 +2748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>42316</v>
       </c>
@@ -2572,7 +2759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>42323</v>
       </c>
@@ -2583,7 +2770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>42330</v>
       </c>
@@ -2594,7 +2781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>42337</v>
       </c>
@@ -2605,7 +2792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>42344</v>
       </c>
@@ -2616,7 +2803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>42351</v>
       </c>
@@ -2627,7 +2814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>42358</v>
       </c>
@@ -2638,7 +2825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>42365</v>
       </c>
@@ -2649,7 +2836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>42372</v>
       </c>
@@ -2660,7 +2847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>42379</v>
       </c>
@@ -2671,7 +2858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>42386</v>
       </c>
@@ -2682,7 +2869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>42393</v>
       </c>
@@ -2693,7 +2880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>42400</v>
       </c>
@@ -2704,7 +2891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>42407</v>
       </c>
@@ -2715,7 +2902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>42414</v>
       </c>
@@ -2726,7 +2913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>42421</v>
       </c>
@@ -2737,7 +2924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>42428</v>
       </c>
@@ -2748,7 +2935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>42435</v>
       </c>
@@ -2759,7 +2946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>42442</v>
       </c>
@@ -2770,7 +2957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>42449</v>
       </c>
@@ -2781,7 +2968,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>42456</v>
       </c>
@@ -2792,7 +2979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>42463</v>
       </c>
@@ -2803,7 +2990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>42470</v>
       </c>
@@ -2814,7 +3001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>42477</v>
       </c>
@@ -2825,7 +3012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>42484</v>
       </c>
@@ -2836,7 +3023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>42491</v>
       </c>
@@ -2847,7 +3034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>42498</v>
       </c>
@@ -2858,7 +3045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>42505</v>
       </c>
@@ -2869,7 +3056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>42512</v>
       </c>
@@ -2880,7 +3067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>42519</v>
       </c>
@@ -2891,7 +3078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>42526</v>
       </c>
@@ -2902,7 +3089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>42533</v>
       </c>
@@ -2913,7 +3100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>42540</v>
       </c>
@@ -2924,7 +3111,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>42547</v>
       </c>
@@ -2935,7 +3122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>42554</v>
       </c>
@@ -2946,7 +3133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>42561</v>
       </c>
@@ -2957,7 +3144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>42568</v>
       </c>
@@ -2968,7 +3155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>42575</v>
       </c>
@@ -2979,7 +3166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>42582</v>
       </c>
@@ -2990,7 +3177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>42589</v>
       </c>
@@ -3001,7 +3188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>42596</v>
       </c>
@@ -3012,7 +3199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>42603</v>
       </c>
@@ -3023,7 +3210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>42610</v>
       </c>
@@ -3034,7 +3221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>42617</v>
       </c>
@@ -3045,7 +3232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>42624</v>
       </c>
@@ -3056,7 +3243,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>42631</v>
       </c>
@@ -3067,7 +3254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>42638</v>
       </c>
@@ -3078,7 +3265,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>42645</v>
       </c>
@@ -3089,7 +3276,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>42652</v>
       </c>
@@ -3100,7 +3287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>42659</v>
       </c>
@@ -3111,7 +3298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>42666</v>
       </c>
@@ -3122,7 +3309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>42673</v>
       </c>
@@ -3133,7 +3320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>42680</v>
       </c>
@@ -3144,7 +3331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>42687</v>
       </c>
@@ -3155,7 +3342,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>42694</v>
       </c>
@@ -3166,7 +3353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>42701</v>
       </c>
@@ -3177,7 +3364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>42708</v>
       </c>
@@ -3188,7 +3375,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>42715</v>
       </c>
@@ -3199,7 +3386,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>42722</v>
       </c>
@@ -3210,7 +3397,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>42729</v>
       </c>
@@ -3221,7 +3408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>42736</v>
       </c>
@@ -3232,7 +3419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>42743</v>
       </c>
@@ -3243,7 +3430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>42750</v>
       </c>
@@ -3254,7 +3441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>42757</v>
       </c>
@@ -3265,7 +3452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>42764</v>
       </c>
@@ -3276,7 +3463,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>42771</v>
       </c>
@@ -3287,7 +3474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>42778</v>
       </c>
@@ -3298,7 +3485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>42785</v>
       </c>
@@ -3309,7 +3496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>42792</v>
       </c>
@@ -3320,7 +3507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>42799</v>
       </c>
@@ -3331,7 +3518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>42806</v>
       </c>
@@ -3342,7 +3529,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>42813</v>
       </c>
@@ -3353,7 +3540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>42820</v>
       </c>
@@ -3364,7 +3551,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>42827</v>
       </c>
@@ -3375,7 +3562,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>42834</v>
       </c>
@@ -3386,7 +3573,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>42841</v>
       </c>
@@ -3397,7 +3584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>42848</v>
       </c>
@@ -3408,7 +3595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>42855</v>
       </c>
@@ -3419,7 +3606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>42862</v>
       </c>
@@ -3430,7 +3617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>42869</v>
       </c>
@@ -3441,7 +3628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>42876</v>
       </c>
@@ -3452,7 +3639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>42883</v>
       </c>
@@ -3463,7 +3650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>42890</v>
       </c>
@@ -3474,7 +3661,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>42897</v>
       </c>
@@ -3485,7 +3672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>42904</v>
       </c>
@@ -3496,7 +3683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>42911</v>
       </c>
@@ -3507,7 +3694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>42918</v>
       </c>
@@ -3518,7 +3705,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>42925</v>
       </c>
@@ -3529,7 +3716,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>42932</v>
       </c>
@@ -3540,7 +3727,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>42939</v>
       </c>
@@ -3551,7 +3738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>42946</v>
       </c>
@@ -3562,7 +3749,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>42953</v>
       </c>
@@ -3573,7 +3760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>42960</v>
       </c>
@@ -3584,7 +3771,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>42967</v>
       </c>
@@ -3595,7 +3782,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>42974</v>
       </c>
@@ -3606,7 +3793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>42981</v>
       </c>
@@ -3617,7 +3804,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>42988</v>
       </c>
@@ -3628,7 +3815,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>42995</v>
       </c>
@@ -3639,7 +3826,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>43002</v>
       </c>
@@ -3650,7 +3837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>43009</v>
       </c>
@@ -3661,7 +3848,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>43016</v>
       </c>
@@ -3672,7 +3859,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>43023</v>
       </c>
@@ -3683,7 +3870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>43030</v>
       </c>
@@ -3694,7 +3881,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>43037</v>
       </c>
@@ -3705,7 +3892,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>43044</v>
       </c>
@@ -3716,7 +3903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>43051</v>
       </c>
@@ -3727,7 +3914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>43058</v>
       </c>
@@ -3738,7 +3925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>43065</v>
       </c>
@@ -3749,7 +3936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>43072</v>
       </c>
@@ -3760,7 +3947,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>43079</v>
       </c>
@@ -3771,7 +3958,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>43086</v>
       </c>
@@ -3782,7 +3969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>43093</v>
       </c>
@@ -3793,7 +3980,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>43100</v>
       </c>
@@ -3804,7 +3991,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>43107</v>
       </c>
@@ -3815,7 +4002,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>43114</v>
       </c>
@@ -3826,7 +4013,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>43121</v>
       </c>
@@ -3837,7 +4024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>43128</v>
       </c>
@@ -3848,7 +4035,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>43135</v>
       </c>
@@ -3859,7 +4046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>43142</v>
       </c>
@@ -3870,7 +4057,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>43149</v>
       </c>
@@ -3881,7 +4068,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>43156</v>
       </c>
@@ -3892,7 +4079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>43163</v>
       </c>
@@ -3903,7 +4090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>43170</v>
       </c>
@@ -3914,7 +4101,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>43177</v>
       </c>
@@ -3925,7 +4112,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>43184</v>
       </c>
@@ -3936,7 +4123,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>43191</v>
       </c>
@@ -3947,7 +4134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>43198</v>
       </c>
@@ -3958,7 +4145,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>43205</v>
       </c>
@@ -3969,7 +4156,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>43212</v>
       </c>
@@ -3980,7 +4167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>43219</v>
       </c>
@@ -3991,7 +4178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>43226</v>
       </c>
@@ -4002,7 +4189,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>43233</v>
       </c>
@@ -4013,7 +4200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>43240</v>
       </c>
@@ -4024,7 +4211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>43247</v>
       </c>
@@ -4035,7 +4222,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>43254</v>
       </c>
@@ -4046,7 +4233,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>43261</v>
       </c>
@@ -4057,7 +4244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>43268</v>
       </c>
@@ -4068,7 +4255,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>43275</v>
       </c>
@@ -4079,7 +4266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>43282</v>
       </c>
@@ -4090,7 +4277,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>43289</v>
       </c>
@@ -4101,7 +4288,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>43296</v>
       </c>
@@ -4112,7 +4299,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>43303</v>
       </c>
@@ -4123,7 +4310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>43310</v>
       </c>
@@ -4134,7 +4321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>43317</v>
       </c>
@@ -4145,7 +4332,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>43324</v>
       </c>
@@ -4156,7 +4343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>43331</v>
       </c>
@@ -4167,7 +4354,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>43338</v>
       </c>
@@ -4178,7 +4365,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>43345</v>
       </c>
@@ -4189,7 +4376,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>43352</v>
       </c>
@@ -4200,7 +4387,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>43359</v>
       </c>
@@ -4211,7 +4398,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>43366</v>
       </c>
@@ -4222,7 +4409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>43373</v>
       </c>
@@ -4233,7 +4420,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>43380</v>
       </c>
@@ -4244,7 +4431,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>43387</v>
       </c>
@@ -4255,7 +4442,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>43394</v>
       </c>
@@ -4266,7 +4453,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>43401</v>
       </c>
@@ -4277,7 +4464,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>43408</v>
       </c>
@@ -4288,7 +4475,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>43415</v>
       </c>
@@ -4299,7 +4486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>43422</v>
       </c>
@@ -4310,7 +4497,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>43429</v>
       </c>
@@ -4321,7 +4508,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>43436</v>
       </c>
@@ -4332,7 +4519,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>43443</v>
       </c>
@@ -4343,7 +4530,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>43450</v>
       </c>
@@ -4354,7 +4541,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>43457</v>
       </c>
@@ -4365,7 +4552,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>43464</v>
       </c>
@@ -4376,7 +4563,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>43471</v>
       </c>
@@ -4387,7 +4574,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>43478</v>
       </c>
@@ -4398,7 +4585,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>43485</v>
       </c>
@@ -4409,7 +4596,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>43492</v>
       </c>
@@ -4420,7 +4607,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>43499</v>
       </c>
@@ -4431,7 +4618,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>43506</v>
       </c>
@@ -4442,7 +4629,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>43513</v>
       </c>
@@ -4453,7 +4640,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>43520</v>
       </c>
@@ -4464,7 +4651,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>43527</v>
       </c>
@@ -4475,7 +4662,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>43534</v>
       </c>
@@ -4486,7 +4673,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>43541</v>
       </c>
@@ -4497,7 +4684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>43548</v>
       </c>
@@ -4508,7 +4695,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>43555</v>
       </c>
@@ -4519,7 +4706,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>43562</v>
       </c>
@@ -4530,7 +4717,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>43569</v>
       </c>
@@ -4541,7 +4728,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>43576</v>
       </c>
@@ -4552,7 +4739,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>43583</v>
       </c>
@@ -4563,7 +4750,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>43590</v>
       </c>
@@ -4574,7 +4761,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>43597</v>
       </c>
@@ -4585,7 +4772,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>43604</v>
       </c>
@@ -4596,7 +4783,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>43611</v>
       </c>
@@ -4607,7 +4794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>43618</v>
       </c>
@@ -4618,7 +4805,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>43625</v>
       </c>
@@ -4629,7 +4816,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>43632</v>
       </c>
@@ -4640,7 +4827,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>43639</v>
       </c>
@@ -4651,7 +4838,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
         <v>43646</v>
       </c>
@@ -4662,7 +4849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
         <v>43653</v>
       </c>
@@ -4673,7 +4860,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
         <v>43660</v>
       </c>
@@ -4684,7 +4871,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
         <v>43667</v>
       </c>
@@ -4695,7 +4882,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
         <v>43674</v>
       </c>
@@ -4706,7 +4893,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
         <v>43681</v>
       </c>
@@ -4717,7 +4904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
         <v>43688</v>
       </c>
@@ -4728,7 +4915,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
         <v>43695</v>
       </c>
@@ -4739,7 +4926,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>43702</v>
       </c>
@@ -4750,7 +4937,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
         <v>43709</v>
       </c>
@@ -4761,7 +4948,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>43716</v>
       </c>
@@ -4772,7 +4959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
         <v>43723</v>
       </c>
@@ -4783,7 +4970,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
         <v>43730</v>
       </c>
@@ -4794,7 +4981,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
         <v>43737</v>
       </c>
@@ -4805,7 +4992,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>43744</v>
       </c>
@@ -4816,7 +5003,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
         <v>43751</v>
       </c>
@@ -4827,7 +5014,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
         <v>43758</v>
       </c>
@@ -4838,7 +5025,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
         <v>43765</v>
       </c>
@@ -4849,7 +5036,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <v>43772</v>
       </c>
@@ -4860,7 +5047,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
         <v>43779</v>
       </c>
@@ -4871,7 +5058,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
         <v>43786</v>
       </c>
@@ -4882,7 +5069,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <v>43793</v>
       </c>
@@ -4893,7 +5080,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
         <v>43800</v>
       </c>
@@ -4904,7 +5091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
         <v>43807</v>
       </c>
@@ -4915,7 +5102,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
         <v>43814</v>
       </c>
@@ -4926,7 +5113,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
         <v>43821</v>
       </c>
@@ -4937,7 +5124,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
         <v>43828</v>
       </c>
@@ -4948,7 +5135,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
         <v>43835</v>
       </c>
@@ -4959,7 +5146,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
         <v>43842</v>
       </c>
@@ -4970,7 +5157,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
         <v>43849</v>
       </c>
@@ -4981,7 +5168,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
         <v>43856</v>
       </c>
@@ -4992,7 +5179,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
         <v>43863</v>
       </c>
@@ -5003,7 +5190,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>43870</v>
       </c>
@@ -5014,7 +5201,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
         <v>43877</v>
       </c>
@@ -5025,7 +5212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
         <v>43884</v>
       </c>
@@ -5036,7 +5223,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
         <v>43891</v>
       </c>
@@ -5047,7 +5234,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>43898</v>
       </c>
@@ -5058,7 +5245,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
         <v>43905</v>
       </c>
@@ -5069,7 +5256,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
         <v>43912</v>
       </c>
@@ -5080,7 +5267,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
         <v>43919</v>
       </c>
@@ -5091,7 +5278,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>43926</v>
       </c>
@@ -5102,7 +5289,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
         <v>43933</v>
       </c>
@@ -5113,7 +5300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
         <v>43940</v>
       </c>
@@ -5124,7 +5311,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
         <v>43947</v>
       </c>
@@ -5135,7 +5322,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>43954</v>
       </c>
@@ -5146,7 +5333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
         <v>43961</v>
       </c>
@@ -5157,7 +5344,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
         <v>43968</v>
       </c>
@@ -5168,7 +5355,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
         <v>43975</v>
       </c>
@@ -5179,7 +5366,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
         <v>43982</v>
       </c>
@@ -5190,7 +5377,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
         <v>43989</v>
       </c>
@@ -5201,7 +5388,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
         <v>43996</v>
       </c>
@@ -5212,7 +5399,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
         <v>44003</v>
       </c>
@@ -5223,7 +5410,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
         <v>44010</v>
       </c>
@@ -5234,7 +5421,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
         <v>44017</v>
       </c>
@@ -5245,7 +5432,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
         <v>44024</v>
       </c>
@@ -5256,7 +5443,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
         <v>44031</v>
       </c>
@@ -5267,7 +5454,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
         <v>44038</v>
       </c>
@@ -5278,7 +5465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
         <v>44045</v>
       </c>
@@ -5289,7 +5476,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
         <v>44052</v>
       </c>
@@ -5300,7 +5487,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
         <v>44059</v>
       </c>
@@ -5311,7 +5498,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
         <v>44066</v>
       </c>
@@ -5322,7 +5509,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
         <v>44073</v>
       </c>
@@ -5333,7 +5520,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
         <v>44080</v>
       </c>
@@ -5344,7 +5531,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
         <v>44087</v>
       </c>
@@ -5355,7 +5542,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
         <v>44094</v>
       </c>
@@ -5366,7 +5553,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
         <v>44101</v>
       </c>
@@ -5377,7 +5564,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
         <v>44108</v>
       </c>
@@ -5388,7 +5575,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
         <v>44115</v>
       </c>
@@ -5399,7 +5586,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
         <v>44122</v>
       </c>
@@ -5410,7 +5597,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
         <v>44129</v>
       </c>
@@ -5421,7 +5608,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
         <v>44136</v>
       </c>
@@ -5432,7 +5619,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
         <v>44143</v>
       </c>
@@ -5443,7 +5630,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
         <v>44150</v>
       </c>
@@ -5454,7 +5641,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
         <v>44157</v>
       </c>
@@ -5465,7 +5652,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
         <v>44164</v>
       </c>
@@ -5476,7 +5663,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
         <v>44171</v>
       </c>
@@ -5487,7 +5674,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
         <v>44178</v>
       </c>
@@ -5498,7 +5685,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
         <v>44185</v>
       </c>
@@ -5507,6 +5694,666 @@
       </c>
       <c r="C313" s="2" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="3">
+        <v>44192</v>
+      </c>
+      <c r="B314" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B315" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B316" s="3">
+        <v>44212</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B317" s="3">
+        <v>44219</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="3">
+        <v>44220</v>
+      </c>
+      <c r="B318" s="3">
+        <v>44226</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="3">
+        <v>44227</v>
+      </c>
+      <c r="B319" s="3">
+        <v>44233</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B320" s="3">
+        <v>44240</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B321" s="3">
+        <v>44247</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B322" s="3">
+        <v>44254</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B323" s="3">
+        <v>44261</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B324" s="3">
+        <v>44268</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B325" s="3">
+        <v>44275</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B326" s="3">
+        <v>44282</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B327" s="3">
+        <v>44289</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B328" s="3">
+        <v>44296</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B329" s="3">
+        <v>44303</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B330" s="3">
+        <v>44310</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B331" s="3">
+        <v>44317</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B332" s="3">
+        <v>44324</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B333" s="3">
+        <v>44331</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="3">
+        <v>44332</v>
+      </c>
+      <c r="B334" s="3">
+        <v>44338</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="3">
+        <v>44339</v>
+      </c>
+      <c r="B335" s="3">
+        <v>44345</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="3">
+        <v>44346</v>
+      </c>
+      <c r="B336" s="3">
+        <v>44352</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="3">
+        <v>44353</v>
+      </c>
+      <c r="B337" s="3">
+        <v>44359</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="3">
+        <v>44360</v>
+      </c>
+      <c r="B338" s="3">
+        <v>44366</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="3">
+        <v>44367</v>
+      </c>
+      <c r="B339" s="3">
+        <v>44373</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="3">
+        <v>44374</v>
+      </c>
+      <c r="B340" s="3">
+        <v>44380</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="3">
+        <v>44381</v>
+      </c>
+      <c r="B341" s="3">
+        <v>44387</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342" s="3">
+        <v>44388</v>
+      </c>
+      <c r="B342" s="3">
+        <v>44394</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A343" s="3">
+        <v>44395</v>
+      </c>
+      <c r="B343" s="3">
+        <v>44401</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" s="3">
+        <v>44402</v>
+      </c>
+      <c r="B344" s="3">
+        <v>44408</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B345" s="3">
+        <v>44415</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="3">
+        <v>44416</v>
+      </c>
+      <c r="B346" s="3">
+        <v>44422</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" s="3">
+        <v>44423</v>
+      </c>
+      <c r="B347" s="3">
+        <v>44429</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" s="3">
+        <v>44430</v>
+      </c>
+      <c r="B348" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" s="3">
+        <v>44437</v>
+      </c>
+      <c r="B349" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" s="3">
+        <v>44444</v>
+      </c>
+      <c r="B350" s="3">
+        <v>44450</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" s="3">
+        <v>44451</v>
+      </c>
+      <c r="B351" s="3">
+        <v>44457</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="3">
+        <v>44458</v>
+      </c>
+      <c r="B352" s="3">
+        <v>44464</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" s="3">
+        <v>44465</v>
+      </c>
+      <c r="B353" s="3">
+        <v>44471</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="3">
+        <v>44472</v>
+      </c>
+      <c r="B354" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355" s="3">
+        <v>44479</v>
+      </c>
+      <c r="B355" s="3">
+        <v>44485</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="3">
+        <v>44486</v>
+      </c>
+      <c r="B356" s="3">
+        <v>44492</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A357" s="3">
+        <v>44493</v>
+      </c>
+      <c r="B357" s="3">
+        <v>44499</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="3">
+        <v>44500</v>
+      </c>
+      <c r="B358" s="3">
+        <v>44506</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359" s="3">
+        <v>44507</v>
+      </c>
+      <c r="B359" s="3">
+        <v>44513</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="3">
+        <v>44514</v>
+      </c>
+      <c r="B360" s="3">
+        <v>44520</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361" s="3">
+        <v>44521</v>
+      </c>
+      <c r="B361" s="3">
+        <v>44527</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B362" s="3">
+        <v>44534</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363" s="3">
+        <v>44535</v>
+      </c>
+      <c r="B363" s="3">
+        <v>44541</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B364" s="3">
+        <v>44548</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365" s="3">
+        <v>44549</v>
+      </c>
+      <c r="B365" s="3">
+        <v>44555</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="3">
+        <v>44556</v>
+      </c>
+      <c r="B366" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367" s="3">
+        <v>44563</v>
+      </c>
+      <c r="B367" s="3">
+        <v>44569</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368" s="3">
+        <v>44570</v>
+      </c>
+      <c r="B368" s="3">
+        <v>44576</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="3">
+        <v>44577</v>
+      </c>
+      <c r="B369" s="3">
+        <v>44583</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370" s="3">
+        <v>44584</v>
+      </c>
+      <c r="B370" s="3">
+        <v>44590</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371" s="3">
+        <v>44591</v>
+      </c>
+      <c r="B371" s="3">
+        <v>44597</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B372" s="3">
+        <v>44604</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" s="3">
+        <v>44605</v>
+      </c>
+      <c r="B373" s="3">
+        <v>44611</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5517,19 +6364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
@@ -5567,7 +6414,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -5575,37 +6422,37 @@
         <v>4500000</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
         <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -5613,37 +6460,37 @@
         <v>14200000</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>453</v>
       </c>
@@ -5651,37 +6498,37 @@
         <v>17000000</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>0.1</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>454</v>
       </c>
@@ -5689,34 +6536,34 @@
         <v>23000000</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -5727,21 +6574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +6620,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5805,7 +6652,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5837,7 +6684,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5869,7 +6716,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5901,7 +6748,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5933,7 +6780,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5965,7 +6812,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5997,7 +6844,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6029,7 +6876,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6061,7 +6908,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6093,7 +6940,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6125,7 +6972,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6157,7 +7004,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6189,7 +7036,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6221,7 +7068,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6253,7 +7100,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6285,7 +7132,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6317,7 +7164,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6349,7 +7196,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6381,7 +7228,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6413,7 +7260,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6445,7 +7292,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6477,7 +7324,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6509,7 +7356,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6541,7 +7388,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6573,7 +7420,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6605,7 +7452,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6637,7 +7484,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6669,7 +7516,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6701,7 +7548,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6733,7 +7580,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6765,7 +7612,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6797,7 +7644,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6829,7 +7676,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6861,7 +7708,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6893,7 +7740,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6925,7 +7772,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
